--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FS Projects\CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A32B1D-0C6B-44A3-AC01-E6B436356DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6320773-696E-426F-9D2B-DA665AAD8B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="478">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1307,6 +1307,153 @@
   </si>
   <si>
     <t>4th  Oct 2021</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>CVRCSEF292 - L VARSHINI</t>
+  </si>
+  <si>
+    <t>CVRCSEF002 - RAMESH C</t>
+  </si>
+  <si>
+    <t>CVRCSEF019 - Ram Shiva</t>
+  </si>
+  <si>
+    <t>CVRCSEF063 - vbhavani118</t>
+  </si>
+  <si>
+    <t>CVRCSEF066 - ashwin kumar</t>
+  </si>
+  <si>
+    <t>CVRCSEF068.jpg - Madhavi Pappula</t>
+  </si>
+  <si>
+    <t>CVRCSEF071 - Swathi Valluri</t>
+  </si>
+  <si>
+    <t>CVRCSEF088 - swathi akuthota</t>
+  </si>
+  <si>
+    <t>CVRCSEF092 - s.srinivas@cvr.ac.in S.Srinivas</t>
+  </si>
+  <si>
+    <t>CVRCSEF107 - Archana Goud</t>
+  </si>
+  <si>
+    <t>CVRCSEF112 - sushma gudivada</t>
+  </si>
+  <si>
+    <t>CVRCSEF162 - rama lakshmi gundala venkata</t>
+  </si>
+  <si>
+    <t>CVRCSEF170 - Sreedevi M</t>
+  </si>
+  <si>
+    <t>CVRCSEF192 - kiran kumar</t>
+  </si>
+  <si>
+    <t>CVRCSEF206 - k.sravani@cvr.ac.in Ms.K.Sravani</t>
+  </si>
+  <si>
+    <t>CVRCSEF231.JPG - Sunitha Yada</t>
+  </si>
+  <si>
+    <t>CVRCSEF240.jpg - swapna yenugula</t>
+  </si>
+  <si>
+    <t>CVRCSEF241 - moligisangeetha@cvr.ac.in Ms.M.Sangeetha</t>
+  </si>
+  <si>
+    <t>CVRCSEF245 - Shankar Naik</t>
+  </si>
+  <si>
+    <t>CVRCSEF249 - gvenkataprasad81@cvr.ac.in Mr.G.V.Prasad</t>
+  </si>
+  <si>
+    <t>CVRCSEF250 - Srinivas Reddy</t>
+  </si>
+  <si>
+    <t>CVRCSEF258 - Soujanya A</t>
+  </si>
+  <si>
+    <t>CVRCSEF264 - talapanenij@cvr.ac.in Ms.Talapaneni Jyothi</t>
+  </si>
+  <si>
+    <t>CVRCSEF266 - umarani CVR</t>
+  </si>
+  <si>
+    <t>CVRCSEF268 - bandlamudi sharmila</t>
+  </si>
+  <si>
+    <t>CVRCSEF277 - NIRANJAN KUMAR P</t>
+  </si>
+  <si>
+    <t>CVRCSEF279 - Sathya Prakash Racharla</t>
+  </si>
+  <si>
+    <t>CVRCSEF280 - swathi odugu</t>
+  </si>
+  <si>
+    <t>CVRCSEF281 - pavani thatiparthi</t>
+  </si>
+  <si>
+    <t>CVRCSEF282 - shravya gurram</t>
+  </si>
+  <si>
+    <t>CVRCSEF283_01 - datlaganesh20@cvr.ac.in datlaganesh20</t>
+  </si>
+  <si>
+    <t>CVRCSEF287 - dsanchithsai37@cvr.ac.in dsanchithsai37</t>
+  </si>
+  <si>
+    <t>CVRCSEF288 - divya bonigala</t>
+  </si>
+  <si>
+    <t>CVRCSEF289 - Sony Divya</t>
+  </si>
+  <si>
+    <t>CVRCSEF291 - Yedukondalu Gamidelli</t>
+  </si>
+  <si>
+    <t>CVRCSEF295.jpg - G Philip514(1)</t>
+  </si>
+  <si>
+    <t>CVRITF024 - Nayani Sateesh Reddy</t>
+  </si>
+  <si>
+    <t>CVRMCAF015.jpg - SAHITH R</t>
+  </si>
+  <si>
+    <t>D.Sujan.Kumar - Sujan Kumar</t>
+  </si>
+  <si>
+    <t>girilatestphoto-removebg-preview - Giri Babu K</t>
+  </si>
+  <si>
+    <t>IMG_20240915_213302 - Chaithanya Damerla</t>
+  </si>
+  <si>
+    <t>IMG-20250308-WA0064 - Kolluri Sharada</t>
+  </si>
+  <si>
+    <t>niranjan - Chukka Niranjan</t>
+  </si>
+  <si>
+    <t>photo - Dr PV RAO</t>
+  </si>
+  <si>
+    <t>Photo - nagamani maddela</t>
+  </si>
+  <si>
+    <t>Photo anusha - Anushareddy .kallem</t>
+  </si>
+  <si>
+    <t>photo VB - Vadlamani Veerabhadram</t>
+  </si>
+  <si>
+    <t>Singaraju Suguna Mallika Photo - Dr. Singaraju Suguna Mallika</t>
   </si>
 </sst>
 </file>
@@ -1860,10 +2007,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,9 +2021,10 @@
     <col min="4" max="4" width="46.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,8 +2043,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1915,8 +2066,9 @@
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1933,8 +2085,9 @@
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1953,8 +2106,9 @@
       <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1971,8 +2125,9 @@
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1991,8 +2146,9 @@
       <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2011,8 +2167,9 @@
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2031,8 +2188,11 @@
       <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2051,8 +2211,9 @@
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2071,8 +2232,9 @@
       <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2091,8 +2253,9 @@
       <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2111,8 +2274,9 @@
       <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2131,8 +2295,9 @@
       <c r="F13" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2151,8 +2316,11 @@
       <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2171,8 +2339,9 @@
       <c r="F15" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2191,8 +2360,11 @@
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2211,8 +2383,9 @@
       <c r="F17" s="22" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2231,8 +2404,11 @@
       <c r="F18" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2251,8 +2427,11 @@
       <c r="F19" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2269,8 +2448,9 @@
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2289,8 +2469,11 @@
       <c r="F21" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2309,8 +2492,11 @@
       <c r="F22" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2329,8 +2515,9 @@
       <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2349,8 +2536,11 @@
       <c r="F24" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2369,8 +2559,9 @@
       <c r="F25" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2389,8 +2580,9 @@
       <c r="F26" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2409,8 +2601,9 @@
       <c r="F27" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2429,8 +2622,11 @@
       <c r="F28" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2449,8 +2645,11 @@
       <c r="F29" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2469,8 +2668,11 @@
       <c r="F30" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2489,8 +2691,11 @@
       <c r="F31" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2507,8 +2712,9 @@
       <c r="F32" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2527,8 +2733,9 @@
       <c r="F33" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2547,8 +2754,9 @@
       <c r="F34" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2567,8 +2775,11 @@
       <c r="F35" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2587,8 +2798,11 @@
       <c r="F36" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2607,8 +2821,9 @@
       <c r="F37" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2627,8 +2842,11 @@
       <c r="F38" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2647,8 +2865,11 @@
       <c r="F39" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2667,8 +2888,9 @@
       <c r="F40" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2687,8 +2909,11 @@
       <c r="F41" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2707,8 +2932,9 @@
       <c r="F42" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2727,8 +2953,11 @@
       <c r="F43" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2747,8 +2976,11 @@
       <c r="F44" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2767,8 +2999,11 @@
       <c r="F45" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2787,8 +3022,9 @@
       <c r="F46" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2807,8 +3043,11 @@
       <c r="F47" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2827,8 +3066,9 @@
       <c r="F48" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2847,8 +3087,11 @@
       <c r="F49" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2867,8 +3110,11 @@
       <c r="F50" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2887,8 +3133,11 @@
       <c r="F51" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2907,8 +3156,11 @@
       <c r="F52" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2927,8 +3179,9 @@
       <c r="F53" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2947,8 +3200,9 @@
       <c r="F54" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2967,8 +3221,9 @@
       <c r="F55" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2987,8 +3242,9 @@
       <c r="F56" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3007,8 +3263,11 @@
       <c r="F57" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3027,8 +3286,11 @@
       <c r="F58" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3047,8 +3309,9 @@
       <c r="F59" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3065,8 +3328,9 @@
       <c r="F60" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3085,8 +3349,9 @@
       <c r="F61" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3105,8 +3370,9 @@
       <c r="F62" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3125,8 +3391,9 @@
       <c r="F63" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3145,8 +3412,11 @@
       <c r="F64" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3165,8 +3435,9 @@
       <c r="F65" s="7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3185,8 +3456,9 @@
       <c r="F66" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3205,8 +3477,9 @@
       <c r="F67" s="7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3225,8 +3498,9 @@
       <c r="F68" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3245,8 +3519,9 @@
       <c r="F69" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3265,8 +3540,9 @@
       <c r="F70" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3285,8 +3561,9 @@
       <c r="F71" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3305,8 +3582,11 @@
       <c r="F72" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3325,8 +3605,11 @@
       <c r="F73" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3345,8 +3628,11 @@
       <c r="F74" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3365,8 +3651,9 @@
       <c r="F75" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3385,8 +3672,11 @@
       <c r="F76" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3405,8 +3695,11 @@
       <c r="F77" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3425,8 +3718,11 @@
       <c r="F78" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3445,8 +3741,11 @@
       <c r="F79" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3465,8 +3764,9 @@
       <c r="F80" s="7" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3485,8 +3785,9 @@
       <c r="F81" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3505,8 +3806,9 @@
       <c r="F82" s="7" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3525,8 +3827,9 @@
       <c r="F83" s="7" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3545,8 +3848,11 @@
       <c r="F84" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3565,8 +3871,11 @@
       <c r="F85" s="7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3585,8 +3894,11 @@
       <c r="F86" s="7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3605,8 +3917,11 @@
       <c r="F87" s="7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3625,8 +3940,9 @@
       <c r="F88" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3645,8 +3961,11 @@
       <c r="F89" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3665,8 +3984,11 @@
       <c r="F90" s="9" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3685,8 +4007,11 @@
       <c r="F91" s="7" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3705,8 +4030,11 @@
       <c r="F92" s="7" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3725,8 +4053,11 @@
       <c r="F93" s="7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3745,8 +4076,9 @@
       <c r="F94" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3765,8 +4097,11 @@
       <c r="F95" s="7" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3785,8 +4120,11 @@
       <c r="F96" s="7" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3805,8 +4143,11 @@
       <c r="F97" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3825,8 +4166,11 @@
       <c r="F98" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3845,8 +4189,9 @@
       <c r="F99" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3863,8 +4208,9 @@
       <c r="F100" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3881,8 +4227,9 @@
       <c r="F101" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3899,8 +4246,9 @@
       <c r="F102" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3917,8 +4265,9 @@
       <c r="F103" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3937,8 +4286,9 @@
       <c r="F104" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3957,8 +4307,9 @@
       <c r="F105" s="17" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="17"/>
+    </row>
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3977,8 +4328,9 @@
       <c r="F106" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -3997,8 +4349,11 @@
       <c r="F107" s="7" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -4017,8 +4372,9 @@
       <c r="F108" s="7" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -4037,8 +4393,9 @@
       <c r="F109" s="7" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -4057,8 +4414,9 @@
       <c r="F110" s="7" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
     </row>
   </sheetData>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6320773-696E-426F-9D2B-DA665AAD8B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CB12A3-A8B3-46F1-B099-03F87BB79FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="479">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1454,6 +1454,9 @@
   </si>
   <si>
     <t>Singaraju Suguna Mallika Photo - Dr. Singaraju Suguna Mallika</t>
+  </si>
+  <si>
+    <t>sujana cherabuddi</t>
   </si>
 </sst>
 </file>
@@ -2009,8 +2012,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2451,9 @@
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR\CVR-CSE\public\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CB12A3-A8B3-46F1-B099-03F87BB79FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="479">
   <si>
     <t>S.NO.</t>
   </si>
@@ -40,6 +34,9 @@
     <t>DOJ</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>CVRCSEF001</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
     <t>3rd Oct 2001</t>
   </si>
   <si>
+    <t>CVRCSEF002 - RAMESH C</t>
+  </si>
+  <si>
     <t>CVRCSEF115</t>
   </si>
   <si>
@@ -217,6 +217,9 @@
     <t>3rd June 2009</t>
   </si>
   <si>
+    <t>Singaraju Suguna Mallika Photo - Dr. Singaraju Suguna Mallika</t>
+  </si>
+  <si>
     <t>CVRCSEF118</t>
   </si>
   <si>
@@ -241,6 +244,21 @@
     <t>21st Jan 2025</t>
   </si>
   <si>
+    <t>niranjan - Chukka Niranjan</t>
+  </si>
+  <si>
+    <t>CVRCSEF133</t>
+  </si>
+  <si>
+    <t>Dr. R.K. Selvakumar</t>
+  </si>
+  <si>
+    <t>rkselvakumar@cvr.ac.in</t>
+  </si>
+  <si>
+    <t>30th Nov 2017</t>
+  </si>
+  <si>
     <t>CVRCSEF018</t>
   </si>
   <si>
@@ -271,12 +289,18 @@
     <t>19th April 2007</t>
   </si>
   <si>
+    <t>CVRCSEF019 - Ram Shiva</t>
+  </si>
+  <si>
     <t>CVRCSEF029</t>
   </si>
   <si>
     <t>Ms. Sujana Cherabuddi</t>
   </si>
   <si>
+    <t>sujana cherabuddi</t>
+  </si>
+  <si>
     <t>CVRCSEF045</t>
   </si>
   <si>
@@ -289,6 +313,9 @@
     <t>10th May 2011</t>
   </si>
   <si>
+    <t>D.Sujan.Kumar - Sujan Kumar</t>
+  </si>
+  <si>
     <t>CVRCSEF170</t>
   </si>
   <si>
@@ -301,6 +328,9 @@
     <t>1st March 2021</t>
   </si>
   <si>
+    <t>CVRCSEF170 - Sreedevi M</t>
+  </si>
+  <si>
     <t>CVRCSEF187</t>
   </si>
   <si>
@@ -319,12 +349,15 @@
     <t>Dr.P.Kiran Kumar</t>
   </si>
   <si>
-    <t> p.kirankumar@cvr.ac.in</t>
+    <t xml:space="preserve"> p.kirankumar@cvr.ac.in</t>
   </si>
   <si>
     <t>22nd Nov 2021</t>
   </si>
   <si>
+    <t>CVRCSEF192 - kiran kumar</t>
+  </si>
+  <si>
     <t>CVRCSEF234</t>
   </si>
   <si>
@@ -373,6 +406,9 @@
     <t>10th June 2013</t>
   </si>
   <si>
+    <t>IMG-20250308-WA0064 - Kolluri Sharada</t>
+  </si>
+  <si>
     <t>CVRCSEF274</t>
   </si>
   <si>
@@ -385,6 +421,9 @@
     <t>29th Dec 2023</t>
   </si>
   <si>
+    <t>photo - Dr PV RAO</t>
+  </si>
+  <si>
     <t>CVRCSEF063</t>
   </si>
   <si>
@@ -397,6 +436,9 @@
     <t>2nd June 2014</t>
   </si>
   <si>
+    <t>CVRCSEF063 - vbhavani118</t>
+  </si>
+  <si>
     <t>CVRCSEF068</t>
   </si>
   <si>
@@ -409,6 +451,9 @@
     <t>20th June 2014</t>
   </si>
   <si>
+    <t>CVRCSEF068.jpg - Madhavi Pappula</t>
+  </si>
+  <si>
     <t>CVRCSEF298</t>
   </si>
   <si>
@@ -454,6 +499,9 @@
     <t>2nd June 2009</t>
   </si>
   <si>
+    <t>CVRMCAF015.jpg - SAHITH R</t>
+  </si>
+  <si>
     <t>CVRITF024</t>
   </si>
   <si>
@@ -466,6 +514,9 @@
     <t>1st June 2011</t>
   </si>
   <si>
+    <t>CVRITF024 - Nayani Sateesh Reddy</t>
+  </si>
+  <si>
     <t>CVRCSEF056</t>
   </si>
   <si>
@@ -487,6 +538,9 @@
     <t>ashwin.kumar@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF066 - ashwin kumar</t>
+  </si>
+  <si>
     <t>CVRCSEF071</t>
   </si>
   <si>
@@ -499,6 +553,9 @@
     <t>5th Aug 2014</t>
   </si>
   <si>
+    <t>CVRCSEF071 - Swathi Valluri</t>
+  </si>
+  <si>
     <t>CVRITF035</t>
   </si>
   <si>
@@ -523,6 +580,9 @@
     <t>25th  Dec 2015</t>
   </si>
   <si>
+    <t>CVRCSEF092 - s.srinivas@cvr.ac.in S.Srinivas</t>
+  </si>
+  <si>
     <t>CVRCSEF105</t>
   </si>
   <si>
@@ -547,6 +607,9 @@
     <t>30th March 2016</t>
   </si>
   <si>
+    <t>CVRCSEF107 - Archana Goud</t>
+  </si>
+  <si>
     <t>CVRCSEF112</t>
   </si>
   <si>
@@ -559,6 +622,9 @@
     <t>1st June 2016</t>
   </si>
   <si>
+    <t>CVRCSEF112 - sushma gudivada</t>
+  </si>
+  <si>
     <t>CVRCSEF249</t>
   </si>
   <si>
@@ -571,6 +637,9 @@
     <t>20th Oct 2022</t>
   </si>
   <si>
+    <t>CVRCSEF249 - gvenkataprasad81@cvr.ac.in Mr.G.V.Prasad</t>
+  </si>
+  <si>
     <t>CVRCSEF204</t>
   </si>
   <si>
@@ -595,6 +664,9 @@
     <t>7th January 2022</t>
   </si>
   <si>
+    <t>CVRCSEF206 - k.sravani@cvr.ac.in Ms.K.Sravani</t>
+  </si>
+  <si>
     <t>CVRCSEF217</t>
   </si>
   <si>
@@ -619,6 +691,9 @@
     <t>10th  December 2021</t>
   </si>
   <si>
+    <t>girilatestphoto-removebg-preview - Giri Babu K</t>
+  </si>
+  <si>
     <t>CVRCSEF240</t>
   </si>
   <si>
@@ -631,6 +706,9 @@
     <t>26th August 2022</t>
   </si>
   <si>
+    <t>CVRCSEF240.jpg - swapna yenugula</t>
+  </si>
+  <si>
     <t>CVRCSEF241</t>
   </si>
   <si>
@@ -643,6 +721,9 @@
     <t>30th August 2022</t>
   </si>
   <si>
+    <t>CVRCSEF241 - moligisangeetha@cvr.ac.in Ms.M.Sangeetha</t>
+  </si>
+  <si>
     <t>CVRCSEF242</t>
   </si>
   <si>
@@ -652,6 +733,9 @@
     <t>drbhadram@cvr.ac.in</t>
   </si>
   <si>
+    <t>photo VB - Vadlamani Veerabhadram</t>
+  </si>
+  <si>
     <t>CVRCSEF246</t>
   </si>
   <si>
@@ -712,6 +796,9 @@
     <t>1st May, 2024</t>
   </si>
   <si>
+    <t>CVRCSEF279 - Sathya Prakash Racharla</t>
+  </si>
+  <si>
     <t>CVRCSEF088</t>
   </si>
   <si>
@@ -724,6 +811,9 @@
     <t>20th Nov 2015</t>
   </si>
   <si>
+    <t>CVRCSEF088 - swathi akuthota</t>
+  </si>
+  <si>
     <t>CVRCSEF265</t>
   </si>
   <si>
@@ -796,6 +886,9 @@
     <t>6th March 2020</t>
   </si>
   <si>
+    <t>CVRCSEF162 - rama lakshmi gundala venkata</t>
+  </si>
+  <si>
     <t>CVRCSEF198</t>
   </si>
   <si>
@@ -892,6 +985,9 @@
     <t>14th sept 2022</t>
   </si>
   <si>
+    <t>CVRCSEF245 - Shankar Naik</t>
+  </si>
+  <si>
     <t>CVRCSEF250</t>
   </si>
   <si>
@@ -904,6 +1000,9 @@
     <t>29th oct 2022</t>
   </si>
   <si>
+    <t>CVRCSEF250 - Srinivas Reddy</t>
+  </si>
+  <si>
     <t>CVRCSEF258</t>
   </si>
   <si>
@@ -916,6 +1015,9 @@
     <t>26th Dec 2022</t>
   </si>
   <si>
+    <t>CVRCSEF258 - Soujanya A</t>
+  </si>
+  <si>
     <t>CVRCSEF267</t>
   </si>
   <si>
@@ -934,6 +1036,9 @@
     <t>a.umarani@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF266 - umarani CVR</t>
+  </si>
+  <si>
     <t>CVRCSEF264</t>
   </si>
   <si>
@@ -943,6 +1048,9 @@
     <t>talapanenij@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF264 - talapanenij@cvr.ac.in Ms.Talapaneni Jyothi</t>
+  </si>
+  <si>
     <t>CVRCSEF268</t>
   </si>
   <si>
@@ -955,6 +1063,9 @@
     <t>11th April 2023</t>
   </si>
   <si>
+    <t>CVRCSEF268 - bandlamudi sharmila</t>
+  </si>
+  <si>
     <t>CVRCSEF269</t>
   </si>
   <si>
@@ -967,6 +1078,9 @@
     <t>1st Dec 2023</t>
   </si>
   <si>
+    <t>Photo - nagamani maddela</t>
+  </si>
+  <si>
     <t>CVRCSEF270</t>
   </si>
   <si>
@@ -1027,6 +1141,9 @@
     <t>14th Feb 2024</t>
   </si>
   <si>
+    <t>IMG_20240915_213302 - Chaithanya Damerla</t>
+  </si>
+  <si>
     <t>CVRCSEF277</t>
   </si>
   <si>
@@ -1039,6 +1156,9 @@
     <t>4th March 2024</t>
   </si>
   <si>
+    <t>CVRCSEF277 - NIRANJAN KUMAR P</t>
+  </si>
+  <si>
     <t>CVRCSEF280</t>
   </si>
   <si>
@@ -1051,6 +1171,9 @@
     <t>24th Oct 2024</t>
   </si>
   <si>
+    <t>CVRCSEF280 - swathi odugu</t>
+  </si>
+  <si>
     <t>CVRCSEF281</t>
   </si>
   <si>
@@ -1060,6 +1183,9 @@
     <t>pavanithatiparthi76@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF281 - pavani thatiparthi</t>
+  </si>
+  <si>
     <t>CVRCSEF284</t>
   </si>
   <si>
@@ -1081,6 +1207,9 @@
     <t>datlaganesh20@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF283_01 - datlaganesh20@cvr.ac.in datlaganesh20</t>
+  </si>
+  <si>
     <t>CVRCSEF282</t>
   </si>
   <si>
@@ -1093,6 +1222,9 @@
     <t>1st Nov 2024</t>
   </si>
   <si>
+    <t>CVRCSEF282 - shravya gurram</t>
+  </si>
+  <si>
     <t>CVRCSEF289</t>
   </si>
   <si>
@@ -1105,6 +1237,9 @@
     <t>2nd Nov 2024</t>
   </si>
   <si>
+    <t>CVRCSEF289 - Sony Divya</t>
+  </si>
+  <si>
     <t>CVRCSEF287</t>
   </si>
   <si>
@@ -1114,6 +1249,9 @@
     <t>dsanchithsai37@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF287 - dsanchithsai37@cvr.ac.in dsanchithsai37</t>
+  </si>
+  <si>
     <t>CVRCSEF288</t>
   </si>
   <si>
@@ -1126,6 +1264,9 @@
     <t>6th Nov 2024</t>
   </si>
   <si>
+    <t>CVRCSEF288 - divya bonigala</t>
+  </si>
+  <si>
     <t>CVRCSEF290</t>
   </si>
   <si>
@@ -1150,6 +1291,9 @@
     <t>6th Dec 2024</t>
   </si>
   <si>
+    <t>CVRCSEF291 - Yedukondalu Gamidelli</t>
+  </si>
+  <si>
     <t>CVRCSEF292</t>
   </si>
   <si>
@@ -1162,6 +1306,9 @@
     <t>17th Dec 2024</t>
   </si>
   <si>
+    <t>CVRCSEF292 - L VARSHINI</t>
+  </si>
+  <si>
     <t>CVRCSEF293</t>
   </si>
   <si>
@@ -1174,6 +1321,9 @@
     <t>2nd Jan 2025</t>
   </si>
   <si>
+    <t>Photo anusha - Anushareddy .kallem</t>
+  </si>
+  <si>
     <t>CVRCSEF295</t>
   </si>
   <si>
@@ -1183,6 +1333,9 @@
     <t>gvenugopalarao@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF295.jpg - G Philip514(1)</t>
+  </si>
+  <si>
     <t>CVRCSEF294</t>
   </si>
   <si>
@@ -1261,6 +1414,9 @@
     <t>22nd April 2022</t>
   </si>
   <si>
+    <t>CVRCSEF231.JPG - Sunitha Yada</t>
+  </si>
+  <si>
     <t>CVRCSEF243</t>
   </si>
   <si>
@@ -1273,18 +1429,6 @@
     <t>1st Sept 2022</t>
   </si>
   <si>
-    <t>CVRCSEF133</t>
-  </si>
-  <si>
-    <t>Dr. R.K. Selvakumar</t>
-  </si>
-  <si>
-    <t>rkselvakumar@cvr.ac.in</t>
-  </si>
-  <si>
-    <t>30th Nov 2017</t>
-  </si>
-  <si>
     <t>CVRCSEF193</t>
   </si>
   <si>
@@ -1307,162 +1451,13 @@
   </si>
   <si>
     <t>4th  Oct 2021</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>CVRCSEF292 - L VARSHINI</t>
-  </si>
-  <si>
-    <t>CVRCSEF002 - RAMESH C</t>
-  </si>
-  <si>
-    <t>CVRCSEF019 - Ram Shiva</t>
-  </si>
-  <si>
-    <t>CVRCSEF063 - vbhavani118</t>
-  </si>
-  <si>
-    <t>CVRCSEF066 - ashwin kumar</t>
-  </si>
-  <si>
-    <t>CVRCSEF068.jpg - Madhavi Pappula</t>
-  </si>
-  <si>
-    <t>CVRCSEF071 - Swathi Valluri</t>
-  </si>
-  <si>
-    <t>CVRCSEF088 - swathi akuthota</t>
-  </si>
-  <si>
-    <t>CVRCSEF092 - s.srinivas@cvr.ac.in S.Srinivas</t>
-  </si>
-  <si>
-    <t>CVRCSEF107 - Archana Goud</t>
-  </si>
-  <si>
-    <t>CVRCSEF112 - sushma gudivada</t>
-  </si>
-  <si>
-    <t>CVRCSEF162 - rama lakshmi gundala venkata</t>
-  </si>
-  <si>
-    <t>CVRCSEF170 - Sreedevi M</t>
-  </si>
-  <si>
-    <t>CVRCSEF192 - kiran kumar</t>
-  </si>
-  <si>
-    <t>CVRCSEF206 - k.sravani@cvr.ac.in Ms.K.Sravani</t>
-  </si>
-  <si>
-    <t>CVRCSEF231.JPG - Sunitha Yada</t>
-  </si>
-  <si>
-    <t>CVRCSEF240.jpg - swapna yenugula</t>
-  </si>
-  <si>
-    <t>CVRCSEF241 - moligisangeetha@cvr.ac.in Ms.M.Sangeetha</t>
-  </si>
-  <si>
-    <t>CVRCSEF245 - Shankar Naik</t>
-  </si>
-  <si>
-    <t>CVRCSEF249 - gvenkataprasad81@cvr.ac.in Mr.G.V.Prasad</t>
-  </si>
-  <si>
-    <t>CVRCSEF250 - Srinivas Reddy</t>
-  </si>
-  <si>
-    <t>CVRCSEF258 - Soujanya A</t>
-  </si>
-  <si>
-    <t>CVRCSEF264 - talapanenij@cvr.ac.in Ms.Talapaneni Jyothi</t>
-  </si>
-  <si>
-    <t>CVRCSEF266 - umarani CVR</t>
-  </si>
-  <si>
-    <t>CVRCSEF268 - bandlamudi sharmila</t>
-  </si>
-  <si>
-    <t>CVRCSEF277 - NIRANJAN KUMAR P</t>
-  </si>
-  <si>
-    <t>CVRCSEF279 - Sathya Prakash Racharla</t>
-  </si>
-  <si>
-    <t>CVRCSEF280 - swathi odugu</t>
-  </si>
-  <si>
-    <t>CVRCSEF281 - pavani thatiparthi</t>
-  </si>
-  <si>
-    <t>CVRCSEF282 - shravya gurram</t>
-  </si>
-  <si>
-    <t>CVRCSEF283_01 - datlaganesh20@cvr.ac.in datlaganesh20</t>
-  </si>
-  <si>
-    <t>CVRCSEF287 - dsanchithsai37@cvr.ac.in dsanchithsai37</t>
-  </si>
-  <si>
-    <t>CVRCSEF288 - divya bonigala</t>
-  </si>
-  <si>
-    <t>CVRCSEF289 - Sony Divya</t>
-  </si>
-  <si>
-    <t>CVRCSEF291 - Yedukondalu Gamidelli</t>
-  </si>
-  <si>
-    <t>CVRCSEF295.jpg - G Philip514(1)</t>
-  </si>
-  <si>
-    <t>CVRITF024 - Nayani Sateesh Reddy</t>
-  </si>
-  <si>
-    <t>CVRMCAF015.jpg - SAHITH R</t>
-  </si>
-  <si>
-    <t>D.Sujan.Kumar - Sujan Kumar</t>
-  </si>
-  <si>
-    <t>girilatestphoto-removebg-preview - Giri Babu K</t>
-  </si>
-  <si>
-    <t>IMG_20240915_213302 - Chaithanya Damerla</t>
-  </si>
-  <si>
-    <t>IMG-20250308-WA0064 - Kolluri Sharada</t>
-  </si>
-  <si>
-    <t>niranjan - Chukka Niranjan</t>
-  </si>
-  <si>
-    <t>photo - Dr PV RAO</t>
-  </si>
-  <si>
-    <t>Photo - nagamani maddela</t>
-  </si>
-  <si>
-    <t>Photo anusha - Anushareddy .kallem</t>
-  </si>
-  <si>
-    <t>photo VB - Vadlamani Veerabhadram</t>
-  </si>
-  <si>
-    <t>Singaraju Suguna Mallika Photo - Dr. Singaraju Suguna Mallika</t>
-  </si>
-  <si>
-    <t>sujana cherabuddi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1507,7 +1502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -1561,11 +1556,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1598,7 +1606,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1613,23 +1621,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,85 +1633,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1727,10 +1719,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1768,71 +1760,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1860,7 +1852,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1883,11 +1875,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1896,13 +1888,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1912,7 +1904,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1921,7 +1913,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1930,7 +1922,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1938,10 +1930,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2006,28 +1998,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="58.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,2382 +2037,2390 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>312</v>
+        <v>350</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>316</v>
+        <v>355</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>320</v>
+        <v>359</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>324</v>
+        <v>363</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>328</v>
+        <v>367</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>332</v>
+        <v>371</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>372</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>353</v>
+      <c r="B90" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>391</v>
+        <v>275</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>399</v>
+        <v>451</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>452</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>403</v>
+        <v>455</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>456</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="G105" s="17"/>
-    </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="G105" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="18" t="s">
-        <v>421</v>
+      <c r="B109" s="10" t="s">
+        <v>471</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="18" t="s">
-        <v>425</v>
+      <c r="B110" s="10" t="s">
+        <v>475</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="5"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="480">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>23rd Nov 2006</t>
+  </si>
+  <si>
+    <t>hod</t>
   </si>
   <si>
     <t>CVRECEF028</t>
@@ -2099,24 +2102,26 @@
       <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -2125,19 +2130,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -2146,22 +2151,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -2169,22 +2174,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -2192,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -2213,19 +2218,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -2234,19 +2239,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -2255,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>20</v>
@@ -2276,19 +2281,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -2297,22 +2302,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -2320,19 +2325,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -2341,22 +2346,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -2364,19 +2369,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -2385,22 +2390,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2408,22 +2413,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -2431,20 +2436,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -2452,22 +2457,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -2475,22 +2480,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -2498,19 +2503,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -2519,22 +2524,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -2542,19 +2547,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -2563,19 +2568,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -2584,19 +2589,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -2605,22 +2610,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -2628,22 +2633,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -2651,22 +2656,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -2674,22 +2679,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -2697,17 +2702,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -2716,19 +2721,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -2737,19 +2742,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -2758,22 +2763,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
@@ -2781,22 +2786,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
@@ -2804,19 +2809,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -2825,22 +2830,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -2848,22 +2853,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -2871,19 +2876,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -2892,22 +2897,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -2915,19 +2920,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -2936,22 +2941,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -2959,22 +2964,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -2982,22 +2987,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3005,19 +3010,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3026,22 +3031,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3049,19 +3054,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G48" s="7"/>
     </row>
@@ -3070,22 +3075,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3093,22 +3098,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3116,22 +3121,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3139,22 +3144,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3162,19 +3167,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -3183,19 +3188,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G54" s="7"/>
     </row>
@@ -3204,19 +3209,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -3225,19 +3230,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -3246,22 +3251,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3269,22 +3274,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3292,19 +3297,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G59" s="7"/>
     </row>
@@ -3314,16 +3319,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3332,19 +3337,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -3353,19 +3358,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3374,19 +3379,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -3395,22 +3400,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3418,19 +3423,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G65" s="7"/>
     </row>
@@ -3439,19 +3444,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G66" s="7"/>
     </row>
@@ -3460,19 +3465,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G67" s="7"/>
     </row>
@@ -3481,19 +3486,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G68" s="7"/>
     </row>
@@ -3502,19 +3507,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G69" s="7"/>
     </row>
@@ -3523,19 +3528,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G70" s="7"/>
     </row>
@@ -3544,19 +3549,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G71" s="7"/>
     </row>
@@ -3565,22 +3570,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3588,22 +3593,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3611,22 +3616,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3634,19 +3639,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G75" s="7"/>
     </row>
@@ -3655,22 +3660,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3678,22 +3683,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3701,22 +3706,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3724,22 +3729,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3747,19 +3752,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G80" s="7"/>
     </row>
@@ -3768,19 +3773,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G81" s="7"/>
     </row>
@@ -3789,19 +3794,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G82" s="7"/>
     </row>
@@ -3810,19 +3815,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -3831,22 +3836,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -3854,22 +3859,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -3877,22 +3882,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -3900,22 +3905,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -3923,19 +3928,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G88" s="7"/>
     </row>
@@ -3944,22 +3949,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="G89" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -3967,22 +3972,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -3990,22 +3995,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -4013,22 +4018,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -4036,22 +4041,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -4059,19 +4064,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4080,22 +4085,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -4103,22 +4108,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -4126,22 +4131,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -4149,22 +4154,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -4172,19 +4177,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G99" s="7"/>
     </row>
@@ -4194,16 +4199,16 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G100" s="7"/>
     </row>
@@ -4213,16 +4218,16 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G101" s="7"/>
     </row>
@@ -4232,16 +4237,16 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G102" s="7"/>
     </row>
@@ -4251,16 +4256,16 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G103" s="7"/>
     </row>
@@ -4269,19 +4274,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G104" s="7"/>
     </row>
@@ -4290,19 +4295,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G105" s="19"/>
     </row>
@@ -4311,19 +4316,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G106" s="7"/>
     </row>
@@ -4332,22 +4337,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4355,19 +4360,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4376,19 +4381,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4397,19 +4402,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G110" s="7"/>
     </row>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="481">
   <si>
     <t>S.NO.</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>d.sandhyarani@cvr.ac.in</t>
+  </si>
+  <si>
+    <t>CVRCSEF118 - Sandhya Rani mam</t>
   </si>
   <si>
     <t>CVRCSEF296</t>
@@ -2339,29 +2342,31 @@
       <c r="F15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -2369,19 +2374,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -2390,22 +2395,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2413,22 +2418,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -2436,20 +2441,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -2457,22 +2462,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -2480,22 +2485,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -2503,19 +2508,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -2524,22 +2529,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -2547,19 +2552,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -2568,19 +2573,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -2589,19 +2594,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -2610,22 +2615,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -2633,22 +2638,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -2656,22 +2661,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -2679,22 +2684,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -2702,17 +2707,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -2721,19 +2726,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -2742,19 +2747,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -2763,22 +2768,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
@@ -2786,22 +2791,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
@@ -2809,19 +2814,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -2830,22 +2835,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -2853,22 +2858,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -2876,19 +2881,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -2897,22 +2902,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -2920,19 +2925,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -2941,22 +2946,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -2964,22 +2969,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -2987,22 +2992,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3010,19 +3015,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3031,22 +3036,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3054,19 +3059,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G48" s="7"/>
     </row>
@@ -3075,22 +3080,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3098,22 +3103,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3121,22 +3126,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3144,22 +3149,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3167,19 +3172,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -3188,19 +3193,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G54" s="7"/>
     </row>
@@ -3209,19 +3214,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -3230,19 +3235,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -3251,22 +3256,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3274,22 +3279,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3297,19 +3302,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G59" s="7"/>
     </row>
@@ -3319,16 +3324,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3337,19 +3342,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -3358,19 +3363,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3379,19 +3384,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -3400,22 +3405,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3423,19 +3428,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G65" s="7"/>
     </row>
@@ -3444,19 +3449,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G66" s="7"/>
     </row>
@@ -3465,103 +3470,103 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G71" s="7"/>
     </row>
@@ -3570,22 +3575,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3593,22 +3598,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3616,22 +3621,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3639,19 +3644,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G75" s="7"/>
     </row>
@@ -3660,22 +3665,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3683,22 +3688,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3706,22 +3711,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3729,22 +3734,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3752,19 +3757,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G80" s="7"/>
     </row>
@@ -3773,19 +3778,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G81" s="7"/>
     </row>
@@ -3794,19 +3799,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G82" s="7"/>
     </row>
@@ -3815,19 +3820,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -3836,22 +3841,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -3859,22 +3864,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -3882,22 +3887,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -3905,22 +3910,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -3928,19 +3933,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G88" s="7"/>
     </row>
@@ -3949,22 +3954,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="G89" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -3972,22 +3977,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -3995,22 +4000,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -4018,22 +4023,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -4041,22 +4046,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -4064,19 +4069,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4085,22 +4090,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -4108,22 +4113,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -4131,22 +4136,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -4154,22 +4159,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -4177,19 +4182,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G99" s="7"/>
     </row>
@@ -4199,16 +4204,16 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G100" s="7"/>
     </row>
@@ -4218,16 +4223,16 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G101" s="7"/>
     </row>
@@ -4237,16 +4242,16 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G102" s="7"/>
     </row>
@@ -4256,16 +4261,16 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G103" s="7"/>
     </row>
@@ -4274,19 +4279,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G104" s="7"/>
     </row>
@@ -4295,19 +4300,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G105" s="19"/>
     </row>
@@ -4316,19 +4321,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G106" s="7"/>
     </row>
@@ -4337,22 +4342,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4360,19 +4365,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4381,19 +4386,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4402,19 +4407,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G110" s="7"/>
     </row>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="492">
   <si>
     <t>S.NO.</t>
   </si>
@@ -52,6 +52,9 @@
     <t>15th Sep 2001</t>
   </si>
   <si>
+    <t>CVRCSEF001 - Prof. L.C. Siva Reddy</t>
+  </si>
+  <si>
     <t>CVRCSEF238</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>07th March 2022</t>
   </si>
   <si>
+    <t>CVRCSEF238 - Dr. Hrushikesha Mohanty</t>
+  </si>
+  <si>
     <t>CVRCSEF015</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>1st July 2009</t>
   </si>
   <si>
+    <t>CVRECEF028 - Dr. Raghava V. Cherabuddi</t>
+  </si>
+  <si>
     <t>CVRCSEF003</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t>1st Aug 2003</t>
   </si>
   <si>
+    <t>CVRCSEF003 -  Dr. M. Raghava</t>
+  </si>
+  <si>
     <t>CVRCSEF004</t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>9th Dec 2016</t>
   </si>
   <si>
+    <t>CVRCSEF115 - Dr. D. Durga Bhavani</t>
+  </si>
+  <si>
     <t>CVRCSEF129</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t>4th Sep 2017</t>
   </si>
   <si>
+    <t>CVRCSEF129-  Dr. N. Subhash Chandra</t>
+  </si>
+  <si>
     <t>CVRCSEF136</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t>v.dattatreya@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF016 - Dr. V. Dattatreya</t>
+  </si>
+  <si>
     <t>CVRCSEF119</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t>31st Dec 2016</t>
   </si>
   <si>
+    <t>CVRCSEF119 - Dr. G. Balakrishna</t>
+  </si>
+  <si>
     <t>CVRCSEF028</t>
   </si>
   <si>
@@ -265,6 +289,9 @@
     <t>30th Nov 2017</t>
   </si>
   <si>
+    <t>CVRCSEF133 -  Dr. R.K. Selvakumar</t>
+  </si>
+  <si>
     <t>CVRCSEF018</t>
   </si>
   <si>
@@ -349,6 +376,9 @@
     <t>9th April 2021</t>
   </si>
   <si>
+    <t>CVRCSEF187 - Dr. M. Swamidas</t>
+  </si>
+  <si>
     <t>CVRCSEF192</t>
   </si>
   <si>
@@ -386,6 +416,9 @@
   </si>
   <si>
     <t>15th Dec 2022</t>
+  </si>
+  <si>
+    <t>CVRCSEF255 -  Dr.M.Sagar</t>
   </si>
   <si>
     <t>CVRCSEF260</t>
@@ -2065,48 +2098,52 @@
       <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -2114,62 +2151,66 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -2177,22 +2218,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -2200,61 +2241,65 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -2263,64 +2308,68 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -2328,22 +2377,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -2351,22 +2400,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -2374,43 +2423,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2418,22 +2469,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -2441,20 +2492,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -2462,22 +2513,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -2485,22 +2536,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -2508,43 +2559,45 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -2552,19 +2605,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -2573,40 +2626,42 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -2615,22 +2670,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -2638,22 +2693,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -2661,22 +2716,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -2684,22 +2739,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -2707,17 +2762,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -2726,19 +2781,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -2747,19 +2802,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -2768,22 +2823,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
@@ -2791,22 +2846,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
@@ -2814,19 +2869,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -2835,22 +2890,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -2858,22 +2913,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -2881,19 +2936,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -2902,22 +2957,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -2925,19 +2980,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -2946,22 +3001,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -2969,22 +3024,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -2992,22 +3047,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3015,19 +3070,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3036,22 +3091,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3059,19 +3114,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G48" s="7"/>
     </row>
@@ -3080,22 +3135,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3103,22 +3158,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3126,22 +3181,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3149,22 +3204,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3172,19 +3227,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -3193,19 +3248,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="G54" s="7"/>
     </row>
@@ -3214,19 +3269,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -3235,19 +3290,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -3256,22 +3311,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3279,22 +3334,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3302,19 +3357,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G59" s="7"/>
     </row>
@@ -3324,16 +3379,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3342,19 +3397,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -3363,19 +3418,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3384,19 +3439,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -3405,22 +3460,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3428,19 +3483,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G65" s="7"/>
     </row>
@@ -3449,19 +3504,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G66" s="7"/>
     </row>
@@ -3470,19 +3525,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G67" s="7"/>
     </row>
@@ -3491,19 +3546,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G68" s="7"/>
     </row>
@@ -3512,19 +3567,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="G69" s="7"/>
     </row>
@@ -3533,19 +3588,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G70" s="7"/>
     </row>
@@ -3554,19 +3609,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G71" s="7"/>
     </row>
@@ -3575,22 +3630,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3598,22 +3653,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3621,22 +3676,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3644,19 +3699,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G75" s="7"/>
     </row>
@@ -3665,22 +3720,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3688,22 +3743,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3711,22 +3766,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3734,22 +3789,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3757,19 +3812,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G80" s="7"/>
     </row>
@@ -3778,19 +3833,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G81" s="7"/>
     </row>
@@ -3799,19 +3854,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="G82" s="7"/>
     </row>
@@ -3820,19 +3875,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -3841,22 +3896,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -3864,22 +3919,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -3887,22 +3942,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -3910,22 +3965,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -3933,19 +3988,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G88" s="7"/>
     </row>
@@ -3954,22 +4009,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -3977,22 +4032,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -4000,22 +4055,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -4023,22 +4078,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -4046,22 +4101,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -4069,19 +4124,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4090,22 +4145,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -4113,22 +4168,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -4136,22 +4191,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -4159,22 +4214,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -4182,19 +4237,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G99" s="7"/>
     </row>
@@ -4204,16 +4259,16 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G100" s="7"/>
     </row>
@@ -4223,16 +4278,16 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="G101" s="7"/>
     </row>
@@ -4242,16 +4297,16 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G102" s="7"/>
     </row>
@@ -4261,16 +4316,16 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G103" s="7"/>
     </row>
@@ -4279,19 +4334,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="G104" s="7"/>
     </row>
@@ -4300,19 +4355,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G105" s="19"/>
     </row>
@@ -4321,19 +4376,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G106" s="7"/>
     </row>
@@ -4342,22 +4397,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4365,19 +4420,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4386,19 +4441,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4407,19 +4462,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G110" s="7"/>
     </row>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="511">
   <si>
     <t>S.NO.</t>
   </si>
@@ -406,6 +406,9 @@
     <t>6th May 2022</t>
   </si>
   <si>
+    <t>CVRCSEF234 - Dr.S.Srinivasulu</t>
+  </si>
+  <si>
     <t>CVRCSEF255</t>
   </si>
   <si>
@@ -433,6 +436,9 @@
     <t>2nd Jan 2023</t>
   </si>
   <si>
+    <t>CVRCSEF260 - Dr.L.Srikanth</t>
+  </si>
+  <si>
     <t>CVRCSEF058</t>
   </si>
   <si>
@@ -517,6 +523,9 @@
     <t>1st June 2009</t>
   </si>
   <si>
+    <t>CVRCSEF026 -  Mr. Syed Muqthadar Ali</t>
+  </si>
+  <si>
     <t>CVRCSEF023</t>
   </si>
   <si>
@@ -526,6 +535,9 @@
     <t>mh.reddy@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF023 - Hanimi Reddy</t>
+  </si>
+  <si>
     <t>CVRMCAF015</t>
   </si>
   <si>
@@ -718,6 +730,9 @@
     <t>1st Feb 2022</t>
   </si>
   <si>
+    <t>CVRCSEF217 - Ms.P.Sampurnima</t>
+  </si>
+  <si>
     <t>CVRCSEF201</t>
   </si>
   <si>
@@ -787,6 +802,9 @@
     <t>21st sept 2022</t>
   </si>
   <si>
+    <t>CVRCSEF246 - Mr.A.Bharath</t>
+  </si>
+  <si>
     <t>CVRCSEF248</t>
   </si>
   <si>
@@ -799,6 +817,9 @@
     <t>17th Oct 2022</t>
   </si>
   <si>
+    <t>CVRCSEF248 - Ms.Ratna Sirisha</t>
+  </si>
+  <si>
     <t>CVRCSEF252</t>
   </si>
   <si>
@@ -811,6 +832,9 @@
     <t>15th Nov 2022</t>
   </si>
   <si>
+    <t>CVRCSEF252 - Mr.B.Srikanth</t>
+  </si>
+  <si>
     <t>CVRCSEF254</t>
   </si>
   <si>
@@ -823,6 +847,9 @@
     <t>1st Dec 2022</t>
   </si>
   <si>
+    <t>CVRCSEF254 - Mr.T.Rama Rao</t>
+  </si>
+  <si>
     <t>CVRCSEF279</t>
   </si>
   <si>
@@ -865,6 +892,9 @@
     <t>5th Jan 2023</t>
   </si>
   <si>
+    <t>CVRCSEF265 - Ms.Thatikonda Radhika</t>
+  </si>
+  <si>
     <t>Ms. IBN. Himabindu</t>
   </si>
   <si>
@@ -913,6 +943,9 @@
     <t>29th Feb 2020</t>
   </si>
   <si>
+    <t>CVRCSEF157 - Ms. Shaik Farhana</t>
+  </si>
+  <si>
     <t>CVRCSEF162</t>
   </si>
   <si>
@@ -940,6 +973,9 @@
     <t>27th November 2021</t>
   </si>
   <si>
+    <t>CVRCSEF198 - lavanya</t>
+  </si>
+  <si>
     <t>CVRCSEF208</t>
   </si>
   <si>
@@ -952,6 +988,9 @@
     <t>8th January 2022</t>
   </si>
   <si>
+    <t>CVRCSEF208 - Ms.G.Deepika</t>
+  </si>
+  <si>
     <t>CVRCSEF215</t>
   </si>
   <si>
@@ -964,6 +1003,9 @@
     <t>17th January 2022</t>
   </si>
   <si>
+    <t>CVRCSEF215- Mr.N.Srinu</t>
+  </si>
+  <si>
     <t>CVRCSEF220</t>
   </si>
   <si>
@@ -1012,6 +1054,9 @@
     <t>7th Sept 2022</t>
   </si>
   <si>
+    <t>CVRCSEF244 - THATIKONDA SUPRAJA</t>
+  </si>
+  <si>
     <t>CVRCSEF245</t>
   </si>
   <si>
@@ -1066,6 +1111,9 @@
     <t>p.sudhakar@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF267.jpg - Sudhakar Polepally</t>
+  </si>
+  <si>
     <t>CVRCSEF266</t>
   </si>
   <si>
@@ -1132,6 +1180,9 @@
     <t>4th Dec 2023</t>
   </si>
   <si>
+    <t>CVRCSEF270 - Mr. N. Yadagiri</t>
+  </si>
+  <si>
     <t>CVRCSEF271</t>
   </si>
   <si>
@@ -1144,6 +1195,9 @@
     <t>14th Dec 2023</t>
   </si>
   <si>
+    <t>CVRCSEF271- Ms. B. Sindhu</t>
+  </si>
+  <si>
     <t>CVRCSEF272</t>
   </si>
   <si>
@@ -1154,6 +1208,9 @@
   </si>
   <si>
     <t>26th Dec 2023</t>
+  </si>
+  <si>
+    <t>CVRCSEF272 - Dr. Baddepaka Prasad</t>
   </si>
   <si>
     <t>CVRCSEF275</t>
@@ -2554,7 +2611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2577,7 +2634,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2600,7 +2657,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2619,29 +2676,31 @@
       <c r="F25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
@@ -2649,43 +2708,45 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -2693,22 +2754,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -2716,22 +2777,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -2739,22 +2800,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -2762,83 +2823,89 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
@@ -2846,22 +2913,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
@@ -2869,19 +2936,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -2890,22 +2957,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -2913,22 +2980,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -2936,19 +3003,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -2957,22 +3024,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -2980,19 +3047,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -3001,45 +3068,45 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>214</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -3047,22 +3114,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3070,19 +3137,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3091,22 +3158,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3114,43 +3181,45 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G48" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3158,22 +3227,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3181,22 +3250,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3204,22 +3273,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3227,106 +3296,114 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G53" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G54" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3334,22 +3411,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3357,21 +3434,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="5">
@@ -3379,16 +3458,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3397,19 +3476,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -3418,19 +3497,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3439,43 +3518,45 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G63" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3483,82 +3564,88 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G65" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G66" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G67" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="G68" s="7"/>
     </row>
@@ -3567,19 +3654,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G69" s="7"/>
     </row>
@@ -3588,19 +3675,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="G70" s="7"/>
     </row>
@@ -3609,43 +3696,45 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G71" s="7"/>
+        <v>345</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3653,22 +3742,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3676,22 +3765,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3699,43 +3788,45 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G75" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3743,22 +3834,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3766,22 +3857,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3789,22 +3880,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3812,82 +3903,88 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G80" s="7"/>
+        <v>387</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G81" s="7"/>
+        <v>392</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G82" s="7"/>
+        <v>397</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -3896,22 +3993,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -3919,22 +4016,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -3942,22 +4039,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -3965,22 +4062,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -3988,19 +4085,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="G88" s="7"/>
     </row>
@@ -4009,22 +4106,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -4032,22 +4129,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -4055,22 +4152,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -4078,22 +4175,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -4101,22 +4198,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -4124,19 +4221,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4145,22 +4242,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -4168,22 +4265,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -4191,22 +4288,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -4214,22 +4311,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -4237,19 +4334,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G99" s="7"/>
     </row>
@@ -4259,16 +4356,16 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G100" s="7"/>
     </row>
@@ -4278,16 +4375,16 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G101" s="7"/>
     </row>
@@ -4297,16 +4394,16 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G102" s="7"/>
     </row>
@@ -4316,16 +4413,16 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G103" s="7"/>
     </row>
@@ -4334,19 +4431,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="G104" s="7"/>
     </row>
@@ -4355,19 +4452,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="G105" s="19"/>
     </row>
@@ -4376,19 +4473,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G106" s="7"/>
     </row>
@@ -4397,22 +4494,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4420,19 +4517,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4441,19 +4538,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4462,19 +4559,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="G110" s="7"/>
     </row>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="515">
   <si>
     <t>S.NO.</t>
   </si>
@@ -631,7 +631,7 @@
     <t>25th  Dec 2015</t>
   </si>
   <si>
-    <t>CVRCSEF092 - s.srinivas@cvr.ac.in S.Srinivas</t>
+    <t>CVRCSEF092-s.srinivas_cvr.ac.in-S.Srinivas</t>
   </si>
   <si>
     <t>CVRCSEF105</t>
@@ -1294,6 +1294,9 @@
     <t>28th Oct 2024</t>
   </si>
   <si>
+    <t>CVRCSEF284 - Ms. Duba Sriveni</t>
+  </si>
+  <si>
     <t>CVRCSEF283</t>
   </si>
   <si>
@@ -1489,6 +1492,9 @@
     <t>6th Feb 2025</t>
   </si>
   <si>
+    <t>IMG_1818 - Srilatha Punna</t>
+  </si>
+  <si>
     <t>CVRCSEF261</t>
   </si>
   <si>
@@ -1498,6 +1504,9 @@
     <t>samyabanoth@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF261 - Dr.Banoth Samya</t>
+  </si>
+  <si>
     <t>CVRCSEF231</t>
   </si>
   <si>
@@ -1547,6 +1556,9 @@
   </si>
   <si>
     <t>4th  Oct 2021</t>
+  </si>
+  <si>
+    <t>cvrcsef191 - Adithya Srinivas</t>
   </si>
 </sst>
 </file>
@@ -4099,29 +4111,31 @@
       <c r="F88" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>425</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -4129,22 +4143,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -4152,22 +4166,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -4175,22 +4189,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -4198,22 +4212,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -4221,19 +4235,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4242,22 +4256,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -4265,22 +4279,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -4288,22 +4302,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -4311,22 +4325,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -4334,19 +4348,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G99" s="7"/>
     </row>
@@ -4356,18 +4370,20 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E100" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G100" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="5">
@@ -4375,18 +4391,20 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E101" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G101" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5">
@@ -4394,18 +4412,20 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E102" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G102" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="5">
@@ -4413,37 +4433,39 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G103" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G104" s="7"/>
     </row>
@@ -4452,64 +4474,68 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="G105" s="19"/>
+        <v>491</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G106" s="7"/>
+      <c r="G106" s="7" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4517,19 +4543,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4538,19 +4564,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4559,21 +4585,23 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G110" s="7"/>
+        <v>513</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="5"/>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="519">
   <si>
     <t>S.NO.</t>
   </si>
@@ -619,6 +619,9 @@
     <t>6th Aug 2015</t>
   </si>
   <si>
+    <t>CVRITF035 - Mr. V. D. S. Krishna</t>
+  </si>
+  <si>
     <t>CVRCSEF092</t>
   </si>
   <si>
@@ -919,6 +922,9 @@
     <t>27th May 2015</t>
   </si>
   <si>
+    <t>CVRCSEF081 - Ms. G. Sandhya</t>
+  </si>
+  <si>
     <t>CVRCSEF152</t>
   </si>
   <si>
@@ -1444,6 +1450,9 @@
     <t>akulapramodraj86@cvr.ac.in</t>
   </si>
   <si>
+    <t>CVRCSEF294 - Mr. Akula Pramod Raj</t>
+  </si>
+  <si>
     <t>Ms. Sonti Bharathi</t>
   </si>
   <si>
@@ -1478,6 +1487,9 @@
   </si>
   <si>
     <t>31st January 2025</t>
+  </si>
+  <si>
+    <t>CVRCSEF297 - Mr. K. Guruvaiah</t>
   </si>
   <si>
     <t>CVRCSEF299</t>
@@ -3029,29 +3041,31 @@
       <c r="F40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -3059,19 +3073,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -3080,22 +3094,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
@@ -3103,22 +3117,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -3126,22 +3140,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3149,19 +3163,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3170,22 +3184,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3193,22 +3207,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -3216,22 +3230,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3239,22 +3253,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3262,22 +3276,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3285,22 +3299,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3308,22 +3322,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
@@ -3331,22 +3345,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
@@ -3354,22 +3368,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
@@ -3377,22 +3391,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
@@ -3400,22 +3414,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3423,22 +3437,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3446,22 +3460,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
@@ -3470,16 +3484,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3488,40 +3502,42 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3530,22 +3546,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
@@ -3553,22 +3569,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3576,22 +3592,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
@@ -3599,22 +3615,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
@@ -3622,22 +3638,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
@@ -3645,19 +3661,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G68" s="7"/>
     </row>
@@ -3666,19 +3682,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G69" s="7"/>
     </row>
@@ -3687,19 +3703,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G70" s="7"/>
     </row>
@@ -3708,22 +3724,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -3731,22 +3747,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3754,22 +3770,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3777,22 +3793,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3800,22 +3816,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -3823,22 +3839,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3846,22 +3862,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3869,22 +3885,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3892,22 +3908,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3915,22 +3931,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -3938,22 +3954,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -3961,22 +3977,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -3984,19 +4000,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -4005,22 +4021,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -4028,22 +4044,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -4051,22 +4067,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -4074,22 +4090,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="G87" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -4097,22 +4113,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -4120,22 +4136,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="G89" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -4143,22 +4159,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -4166,22 +4182,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -4189,22 +4205,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="G92" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -4212,22 +4228,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -4235,19 +4251,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4256,22 +4272,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -4279,22 +4295,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -4302,22 +4318,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -4325,22 +4341,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="G98" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -4348,21 +4364,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G99" s="7"/>
+        <v>469</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5">
@@ -4370,19 +4388,19 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
@@ -4391,19 +4409,19 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
@@ -4412,19 +4430,19 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
@@ -4433,19 +4451,19 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -4453,43 +4471,45 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G104" s="7"/>
+        <v>490</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -4497,22 +4517,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -4520,22 +4540,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4543,19 +4563,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4564,19 +4584,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4585,22 +4605,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="521">
   <si>
     <t>S.NO.</t>
   </si>
@@ -199,6 +199,9 @@
     <t>20th Aug 2018</t>
   </si>
   <si>
+    <t>CVRCSEF136 - Dr. Venkatesh Sharma</t>
+  </si>
+  <si>
     <t>CVRCSEF016</t>
   </si>
   <si>
@@ -1046,6 +1049,9 @@
   </si>
   <si>
     <t>29th July 2022</t>
+  </si>
+  <si>
+    <t>CVRCSEF237 - Ms.Salvadi Kasturi</t>
   </si>
   <si>
     <t>CVRCSEF244</t>
@@ -2382,29 +2388,31 @@
       <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -2412,22 +2420,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -2435,22 +2443,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -2458,22 +2466,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -2481,22 +2489,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -2504,22 +2512,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -2527,22 +2535,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2550,22 +2558,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -2573,20 +2581,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -2594,22 +2602,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -2617,22 +2625,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -2640,22 +2648,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -2663,22 +2671,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -2686,22 +2694,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
@@ -2709,22 +2717,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
@@ -2732,22 +2740,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
@@ -2755,22 +2763,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -2778,22 +2786,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -2801,22 +2809,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -2824,22 +2832,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -2847,20 +2855,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
@@ -2868,22 +2876,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
@@ -2891,22 +2899,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
@@ -2914,22 +2922,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
@@ -2937,22 +2945,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
@@ -2960,19 +2968,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -2981,22 +2989,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -3004,22 +3012,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -3027,22 +3035,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
@@ -3050,22 +3058,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -3073,19 +3081,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -3094,22 +3102,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
@@ -3117,22 +3125,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -3140,22 +3148,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3163,19 +3171,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3184,22 +3192,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3207,22 +3215,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -3230,22 +3238,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3253,22 +3261,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3276,22 +3284,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3299,22 +3307,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3322,22 +3330,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
@@ -3345,22 +3353,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
@@ -3368,22 +3376,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
@@ -3391,22 +3399,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
@@ -3414,22 +3422,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3437,22 +3445,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3460,22 +3468,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
@@ -3484,16 +3492,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3502,22 +3510,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
@@ -3525,19 +3533,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3546,22 +3554,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
@@ -3569,22 +3577,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3592,22 +3600,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
@@ -3615,22 +3623,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
@@ -3638,22 +3646,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
@@ -3661,19 +3669,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G68" s="7"/>
     </row>
@@ -3682,19 +3690,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G69" s="7"/>
     </row>
@@ -3703,43 +3711,45 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="7"/>
+        <v>344</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -3747,22 +3757,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3770,22 +3780,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3793,22 +3803,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3816,22 +3826,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -3839,22 +3849,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3862,22 +3872,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3885,22 +3895,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3908,22 +3918,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3931,22 +3941,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -3954,22 +3964,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -3977,22 +3987,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -4000,19 +4010,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -4021,22 +4031,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -4044,22 +4054,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -4067,22 +4077,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -4090,22 +4100,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="G87" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -4113,22 +4123,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -4136,357 +4146,357 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="G89" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+        <v>434</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+        <v>439</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+        <v>444</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="G92" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+        <v>448</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+        <v>453</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+        <v>462</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+        <v>467</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+        <v>472</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="G98" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+        <v>476</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+        <v>480</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+        <v>481</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+        <v>485</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+        <v>487</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
@@ -4494,22 +4504,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -4517,22 +4527,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -4540,22 +4550,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4563,19 +4573,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4584,19 +4594,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -4605,22 +4615,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417EDDE-04DB-458A-8C72-D93F937EB51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -388,7 +394,7 @@
     <t>Dr.P.Kiran Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve"> p.kirankumar@cvr.ac.in</t>
+    <t> p.kirankumar@cvr.ac.in</t>
   </si>
   <si>
     <t>22nd Nov 2021</t>
@@ -1582,8 +1588,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1628,7 +1633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1696,10 +1701,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1732,7 +1737,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1747,10 +1752,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1758,83 +1763,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1845,10 +1847,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1886,71 +1888,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1978,7 +1980,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2001,11 +2003,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2014,13 +2016,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2030,7 +2032,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2039,7 +2041,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2048,7 +2050,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2056,10 +2058,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2124,26 +2126,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="46.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="58.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2461,7 +2465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2894,7 +2898,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2963,7 +2967,7 @@
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2984,7 +2988,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3097,7 +3101,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3187,7 +3191,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3505,7 +3509,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3549,7 +3553,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3572,7 +3576,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>327</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>332</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3685,7 +3689,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3706,7 +3710,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3775,7 +3779,7 @@
         <v>355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4026,7 +4030,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>421</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>425</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>434</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -4210,7 +4214,7 @@
         <v>444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -4277,7 +4281,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -4323,7 +4327,7 @@
         <v>467</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>481</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -4476,7 +4480,7 @@
         <v>487</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>493</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>507</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -4589,7 +4593,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -4610,7 +4614,7 @@
       </c>
       <c r="G109" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -4633,14 +4637,8 @@
         <v>520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417EDDE-04DB-458A-8C72-D93F937EB51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A9E35-1FCF-4E7A-827A-B13F0F77D151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="522">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1583,6 +1583,9 @@
   </si>
   <si>
     <t>cvrcsef191 - Adithya Srinivas</t>
+  </si>
+  <si>
+    <t>K. Deepthi reddy</t>
   </si>
 </sst>
 </file>
@@ -2132,8 +2135,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3099,7 +3102,9 @@
       <c r="F42" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417EDDE-04DB-458A-8C72-D93F937EB51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -394,7 +388,7 @@
     <t>Dr.P.Kiran Kumar</t>
   </si>
   <si>
-    <t> p.kirankumar@cvr.ac.in</t>
+    <t xml:space="preserve"> p.kirankumar@cvr.ac.in</t>
   </si>
   <si>
     <t>22nd Nov 2021</t>
@@ -1588,7 +1582,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1633,7 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -1701,10 +1696,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1737,7 +1732,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1752,10 +1747,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,80 +1758,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1847,10 +1845,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1888,71 +1886,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1980,7 +1978,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2003,11 +2001,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2016,13 +2014,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2032,7 +2030,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2041,7 +2039,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2050,7 +2048,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2058,10 +2056,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2126,28 +2124,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="58.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2193,7 +2189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2214,7 +2210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2237,7 +2233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2419,7 +2415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2465,7 +2461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2534,7 +2530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2557,7 +2553,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2624,7 +2620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2693,7 +2689,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2716,7 +2712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2739,7 +2735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2762,7 +2758,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2785,7 +2781,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2808,7 +2804,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2854,7 +2850,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2875,7 +2871,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2898,7 +2894,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2944,7 +2940,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2988,7 +2984,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3011,7 +3007,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3034,7 +3030,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3057,7 +3053,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3101,7 +3097,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3124,7 +3120,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3147,7 +3143,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3170,7 +3166,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3191,7 +3187,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3237,7 +3233,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3260,7 +3256,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3306,7 +3302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3329,7 +3325,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3375,7 +3371,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3398,7 +3394,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3421,7 +3417,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3467,7 +3463,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3490,7 +3486,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3509,7 +3505,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3576,7 +3572,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3645,7 +3641,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3668,7 +3664,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3689,7 +3685,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3710,7 +3706,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3733,7 +3729,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3756,7 +3752,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3779,7 +3775,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3802,7 +3798,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3825,7 +3821,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3848,7 +3844,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3871,7 +3867,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3894,7 +3890,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3917,7 +3913,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3940,7 +3936,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3963,7 +3959,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4030,7 +4026,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4053,7 +4049,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4076,7 +4072,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4145,7 +4141,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -4191,7 +4187,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -4214,7 +4210,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -4237,7 +4233,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -4260,7 +4256,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -4281,7 +4277,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -4327,7 +4323,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -4350,7 +4346,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -4396,7 +4392,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -4438,7 +4434,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -4526,7 +4522,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -4549,7 +4545,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -4572,7 +4568,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -4593,7 +4589,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -4614,7 +4610,7 @@
       </c>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -4637,8 +4633,14 @@
         <v>520</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="5"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -3982,7 +3982,7 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>421</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="5">
         <v>88</v>
       </c>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="523">
   <si>
     <t>S.NO.</t>
   </si>
@@ -652,6 +652,9 @@
     <t>29th Feb 2016</t>
   </si>
   <si>
+    <t>CVRCSEF105 - Ms. K. Deepthi Reddy</t>
+  </si>
+  <si>
     <t>CVRCSEF107</t>
   </si>
   <si>
@@ -1562,6 +1565,9 @@
   </si>
   <si>
     <t>24nd November 2021</t>
+  </si>
+  <si>
+    <t>CVRCSEF193 - Dr.D.Teja Santosh</t>
   </si>
   <si>
     <t>CVRCSEF191</t>
@@ -3095,29 +3101,31 @@
       <c r="F42" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
@@ -3125,22 +3133,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -3148,22 +3156,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3171,19 +3179,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -3192,22 +3200,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3215,22 +3223,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -3238,22 +3246,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3261,22 +3269,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3284,22 +3292,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3307,22 +3315,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3330,22 +3338,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
@@ -3353,22 +3361,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
@@ -3376,22 +3384,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
@@ -3399,22 +3407,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
@@ -3422,22 +3430,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -3445,22 +3453,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -3468,22 +3476,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
@@ -3492,16 +3500,16 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3510,22 +3518,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
@@ -3533,19 +3541,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -3554,22 +3562,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
@@ -3577,22 +3585,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -3600,22 +3608,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
@@ -3623,22 +3631,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
@@ -3646,22 +3654,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
@@ -3669,19 +3677,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G68" s="7"/>
     </row>
@@ -3690,19 +3698,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G69" s="7"/>
     </row>
@@ -3711,22 +3719,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
@@ -3734,22 +3742,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -3757,22 +3765,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3780,22 +3788,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3803,22 +3811,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3826,22 +3834,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -3849,22 +3857,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3872,22 +3880,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3895,22 +3903,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -3918,22 +3926,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3941,22 +3949,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -3964,22 +3972,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
@@ -3987,22 +3995,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
@@ -4010,19 +4018,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -4031,22 +4039,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
@@ -4054,22 +4062,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
@@ -4077,22 +4085,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
@@ -4100,22 +4108,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
@@ -4123,22 +4131,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
@@ -4146,22 +4154,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
@@ -4169,22 +4177,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
@@ -4192,22 +4200,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
@@ -4215,22 +4223,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
@@ -4238,22 +4246,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
@@ -4261,19 +4269,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4282,22 +4290,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
@@ -4305,22 +4313,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
@@ -4328,22 +4336,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
@@ -4351,22 +4359,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
@@ -4374,22 +4382,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
@@ -4398,19 +4406,19 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E100" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
@@ -4419,19 +4427,19 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E101" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
@@ -4440,19 +4448,19 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E102" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
@@ -4461,19 +4469,19 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
@@ -4481,22 +4489,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
@@ -4504,22 +4512,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -4527,22 +4535,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -4550,22 +4558,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -4573,19 +4581,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -4594,43 +4602,45 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>516</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FS Projects\CVR-CSE\public\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B50351-CC6B-4B6E-8EC4-C59F785F685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="514">
   <si>
     <t>S.NO.</t>
   </si>
@@ -388,7 +394,7 @@
     <t>Dr.P.Kiran Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve"> p.kirankumar@cvr.ac.in</t>
+    <t> p.kirankumar@cvr.ac.in</t>
   </si>
   <si>
     <t>22nd Nov 2021</t>
@@ -1268,33 +1274,6 @@
   </si>
   <si>
     <t>CVRCSEF277 - NIRANJAN KUMAR P</t>
-  </si>
-  <si>
-    <t>CVRCSEF280</t>
-  </si>
-  <si>
-    <t>Ms. Swathi Odugu</t>
-  </si>
-  <si>
-    <t>oduguswathi@cvr.ac.in</t>
-  </si>
-  <si>
-    <t>24th Oct 2024</t>
-  </si>
-  <si>
-    <t>CVRCSEF280 - swathi odugu</t>
-  </si>
-  <si>
-    <t>CVRCSEF281</t>
-  </si>
-  <si>
-    <t>Ms. Thatiparthy Pavani</t>
-  </si>
-  <si>
-    <t>pavanithatiparthi76@cvr.ac.in</t>
-  </si>
-  <si>
-    <t>CVRCSEF281 - pavani thatiparthi</t>
   </si>
   <si>
     <t>CVRCSEF284</t>
@@ -1588,8 +1567,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1634,7 +1612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1702,10 +1680,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1738,7 +1716,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1753,10 +1731,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1764,83 +1742,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1851,10 +1826,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1892,71 +1867,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1984,7 +1959,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2007,11 +1982,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2020,13 +1995,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2036,7 +2011,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2045,7 +2020,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2054,7 +2029,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2062,10 +2037,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2130,26 +2105,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="46.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="58.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2195,7 +2172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2216,7 +2193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2239,7 +2216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2260,7 +2237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2283,7 +2260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2306,7 +2283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2329,7 +2306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2352,7 +2329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2375,7 +2352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2398,7 +2375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2421,7 +2398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2444,7 +2421,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2467,7 +2444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2490,7 +2467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2513,7 +2490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2536,7 +2513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2559,7 +2536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2582,7 +2559,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2603,7 +2580,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2626,7 +2603,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2649,7 +2626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2672,7 +2649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2695,7 +2672,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2718,7 +2695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2741,7 +2718,7 @@
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2764,7 +2741,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2787,7 +2764,7 @@
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2810,7 +2787,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2833,7 +2810,7 @@
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2856,7 +2833,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2877,7 +2854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2900,7 +2877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2923,7 +2900,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2946,7 +2923,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2969,7 +2946,7 @@
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2990,7 +2967,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3013,7 +2990,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3036,7 +3013,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3059,7 +3036,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3082,7 +3059,7 @@
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3105,7 +3082,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3128,7 +3105,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3151,7 +3128,7 @@
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3174,7 +3151,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3195,7 +3172,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3218,7 +3195,7 @@
         <v>236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3241,7 +3218,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3264,7 +3241,7 @@
         <v>246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3287,7 +3264,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3310,7 +3287,7 @@
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3333,7 +3310,7 @@
         <v>260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3356,7 +3333,7 @@
         <v>265</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3379,7 +3356,7 @@
         <v>270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3402,7 +3379,7 @@
         <v>275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3425,7 +3402,7 @@
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3448,7 +3425,7 @@
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3471,7 +3448,7 @@
         <v>290</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3494,7 +3471,7 @@
         <v>295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3513,7 +3490,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3536,7 +3513,7 @@
         <v>304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3557,7 +3534,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3580,7 +3557,7 @@
         <v>313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3603,7 +3580,7 @@
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3626,7 +3603,7 @@
         <v>323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3649,7 +3626,7 @@
         <v>328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3672,7 +3649,7 @@
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3693,7 +3670,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3714,7 +3691,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3737,7 +3714,7 @@
         <v>346</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3760,7 +3737,7 @@
         <v>351</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3783,7 +3760,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3806,7 +3783,7 @@
         <v>361</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3829,7 +3806,7 @@
         <v>366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3852,7 +3829,7 @@
         <v>370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3875,7 +3852,7 @@
         <v>374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3898,7 +3875,7 @@
         <v>378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3921,7 +3898,7 @@
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3944,7 +3921,7 @@
         <v>388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3967,7 +3944,7 @@
         <v>393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3990,7 +3967,7 @@
         <v>398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4013,7 +3990,7 @@
         <v>403</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4034,7 +4011,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4057,7 +4034,7 @@
         <v>412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4080,7 +4057,7 @@
         <v>417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4103,7 +4080,7 @@
         <v>422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4126,11 +4103,11 @@
         <v>426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="15" t="s">
         <v>427</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -4139,17 +4116,17 @@
       <c r="D88" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4166,36 +4143,36 @@
         <v>434</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>436</v>
+      <c r="B90" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E90" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F90" s="9" t="s">
+      <c r="E90" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="F90" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -4218,7 +4195,7 @@
         <v>445</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -4235,13 +4212,11 @@
         <v>448</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G92" s="7" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -4264,7 +4239,7 @@
         <v>454</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -4283,55 +4258,57 @@
       <c r="F94" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="G94" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="G94" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -4348,173 +4325,173 @@
         <v>471</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    </row>
+    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>475</v>
+      <c r="B98" s="6"/>
+      <c r="C98" s="8" t="s">
+        <v>473</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>476</v>
+      <c r="E98" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>479</v>
+      <c r="B99" s="6"/>
+      <c r="C99" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>480</v>
+      <c r="E99" s="8" t="s">
+        <v>476</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>483</v>
+      <c r="E100" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>485</v>
+      <c r="E101" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="8" t="s">
-        <v>486</v>
+      <c r="B102" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="8" t="s">
-        <v>488</v>
+      <c r="B103" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>487</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F103" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="G103" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C104" s="17" t="s">
         <v>491</v>
       </c>
+      <c r="C104" s="7" t="s">
+        <v>492</v>
+      </c>
       <c r="D104" s="8" t="s">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>493</v>
+        <v>140</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="8" t="s">
         <v>496</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -4523,14 +4500,14 @@
       <c r="E105" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -4541,30 +4518,28 @@
         <v>501</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>502</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G106" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>301</v>
+      <c r="D107" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>506</v>
@@ -4576,11 +4551,11 @@
         <v>508</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="10" t="s">
         <v>509</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -4595,62 +4570,16 @@
       <c r="F108" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G108" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="5">
-        <v>108</v>
-      </c>
-      <c r="B109" s="10" t="s">
+      <c r="G108" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="5">
-        <v>109</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FS Projects\CVR-CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B50351-CC6B-4B6E-8EC4-C59F785F685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE1C9EA-86FE-4C2C-84DF-7422B73A033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="516">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1090,9 +1090,6 @@
     <t>14th sept 2022</t>
   </si>
   <si>
-    <t>CVRCSEF245 - Shankar Naik</t>
-  </si>
-  <si>
     <t>CVRCSEF250</t>
   </si>
   <si>
@@ -1562,6 +1559,15 @@
   </si>
   <si>
     <t>cvrcsef191 - Adithya Srinivas</t>
+  </si>
+  <si>
+    <t>G swetha</t>
+  </si>
+  <si>
+    <t>k manasa</t>
+  </si>
+  <si>
+    <t>p shanker</t>
   </si>
 </sst>
 </file>
@@ -2111,8 +2117,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2965,7 +2971,9 @@
       <c r="F37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
@@ -3668,7 +3676,9 @@
       <c r="F68" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
@@ -3757,7 +3767,7 @@
         <v>355</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3765,22 +3775,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3788,22 +3798,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3811,22 +3821,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3834,22 +3844,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3857,22 +3867,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>294</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3880,22 +3890,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3903,22 +3913,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>385</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3926,22 +3936,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3949,22 +3959,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3972,22 +3982,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3995,19 +4005,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>405</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -4016,22 +4026,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>409</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4039,22 +4049,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4062,22 +4072,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4085,22 +4095,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4108,22 +4118,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E88" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4131,22 +4141,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4154,22 +4164,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4177,22 +4187,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>441</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>442</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,19 +4210,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="G92" s="7"/>
     </row>
@@ -4221,22 +4231,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4244,22 +4254,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4267,22 +4277,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4290,22 +4300,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4313,22 +4323,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E97" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4337,19 +4347,19 @@
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4358,19 +4368,19 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4379,19 +4389,19 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4400,19 +4410,19 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4420,22 +4430,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>481</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>482</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E102" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4443,22 +4453,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F103" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="G103" s="19" t="s">
         <v>489</v>
-      </c>
-      <c r="G103" s="19" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,22 +4476,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4489,22 +4499,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>496</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E105" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4512,19 +4522,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="G106" s="7"/>
     </row>
@@ -4533,22 +4543,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4556,22 +4566,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E108" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE1C9EA-86FE-4C2C-84DF-7422B73A033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE5347-00BA-42A3-8EC2-7A9E66F71C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,9 +1102,6 @@
     <t>29th oct 2022</t>
   </si>
   <si>
-    <t>CVRCSEF250 - Srinivas Reddy</t>
-  </si>
-  <si>
     <t>CVRCSEF258</t>
   </si>
   <si>
@@ -1568,6 +1565,9 @@
   </si>
   <si>
     <t>p shanker</t>
+  </si>
+  <si>
+    <t>g malleshwari</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2117,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="D63" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2972,7 +2972,7 @@
         <v>188</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3677,7 +3677,7 @@
         <v>337</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3767,7 +3767,7 @@
         <v>355</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3790,7 +3790,7 @@
         <v>359</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>360</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3798,22 +3798,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3821,22 +3821,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3844,22 +3844,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3867,22 +3867,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>294</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3890,22 +3890,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,22 +3913,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>383</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>384</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3936,22 +3936,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3959,22 +3959,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3982,22 +3982,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4005,19 +4005,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>404</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -4026,22 +4026,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>408</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4049,22 +4049,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4072,22 +4072,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>417</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4095,22 +4095,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4118,22 +4118,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E88" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4141,22 +4141,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4164,22 +4164,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4187,22 +4187,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4210,19 +4210,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>446</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="G92" s="7"/>
     </row>
@@ -4231,22 +4231,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4254,22 +4254,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4277,22 +4277,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4300,22 +4300,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4323,22 +4323,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E97" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4347,19 +4347,19 @@
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4368,19 +4368,19 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4389,19 +4389,19 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4410,19 +4410,19 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4430,22 +4430,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>480</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>481</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E102" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4453,22 +4453,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>485</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>486</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F103" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="G103" s="19" t="s">
         <v>488</v>
-      </c>
-      <c r="G103" s="19" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4476,22 +4476,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4499,22 +4499,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E105" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4522,19 +4522,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="G106" s="7"/>
     </row>
@@ -4543,22 +4543,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4566,22 +4566,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E108" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE5347-00BA-42A3-8EC2-7A9E66F71C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5104253-666E-48EC-96DB-E8E2C44767F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="517">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1568,6 +1568,9 @@
   </si>
   <si>
     <t>g malleshwari</t>
+  </si>
+  <si>
+    <t>CVRCSEF298 - karthik karmakonda</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2860,7 @@
         <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>141</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\cvrcse\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5104253-666E-48EC-96DB-E8E2C44767F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF8245-BA70-4C2D-88A9-A9375F28DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="512">
   <si>
     <t>S.NO.</t>
   </si>
@@ -284,21 +284,6 @@
   </si>
   <si>
     <t>niranjan - Chukka Niranjan</t>
-  </si>
-  <si>
-    <t>CVRCSEF133</t>
-  </si>
-  <si>
-    <t>Dr. R.K. Selvakumar</t>
-  </si>
-  <si>
-    <t>rkselvakumar@cvr.ac.in</t>
-  </si>
-  <si>
-    <t>30th Nov 2017</t>
-  </si>
-  <si>
-    <t>CVRCSEF133 -  Dr. R.K. Selvakumar</t>
   </si>
   <si>
     <t>CVRCSEF018</t>
@@ -1625,7 +1610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1669,19 +1654,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1751,7 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1783,28 +1755,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2118,15 +2087,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
@@ -2501,30 +2470,30 @@
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>93</v>
@@ -2542,48 +2511,48 @@
         <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>106</v>
@@ -2591,7 +2560,7 @@
     </row>
     <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>107</v>
@@ -2600,7 +2569,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>109</v>
@@ -2614,7 +2583,7 @@
     </row>
     <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>112</v>
@@ -2623,7 +2592,7 @@
         <v>113</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>114</v>
@@ -2637,7 +2606,7 @@
     </row>
     <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>117</v>
@@ -2646,7 +2615,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>119</v>
@@ -2660,7 +2629,7 @@
     </row>
     <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>122</v>
@@ -2669,7 +2638,7 @@
         <v>123</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>124</v>
@@ -2683,7 +2652,7 @@
     </row>
     <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>127</v>
@@ -2692,7 +2661,7 @@
         <v>128</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>129</v>
@@ -2706,7 +2675,7 @@
     </row>
     <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>132</v>
@@ -2715,7 +2684,7 @@
         <v>133</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>134</v>
@@ -2729,7 +2698,7 @@
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>137</v>
@@ -2738,7 +2707,7 @@
         <v>138</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>139</v>
@@ -2752,16 +2721,16 @@
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>144</v>
@@ -2775,16 +2744,16 @@
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>149</v>
@@ -2798,7 +2767,7 @@
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>152</v>
@@ -2807,7 +2776,7 @@
         <v>153</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>154</v>
@@ -2821,89 +2790,89 @@
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>161</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>174</v>
@@ -2911,7 +2880,7 @@
     </row>
     <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>175</v>
@@ -2920,7 +2889,7 @@
         <v>176</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>177</v>
@@ -2934,7 +2903,7 @@
     </row>
     <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>180</v>
@@ -2943,7 +2912,7 @@
         <v>181</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>182</v>
@@ -2952,50 +2921,50 @@
         <v>183</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>192</v>
@@ -3003,7 +2972,7 @@
     </row>
     <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>193</v>
@@ -3012,7 +2981,7 @@
         <v>194</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>195</v>
@@ -3026,7 +2995,7 @@
     </row>
     <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>198</v>
@@ -3035,7 +3004,7 @@
         <v>199</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>200</v>
@@ -3049,7 +3018,7 @@
     </row>
     <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>203</v>
@@ -3058,7 +3027,7 @@
         <v>204</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>205</v>
@@ -3072,7 +3041,7 @@
     </row>
     <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>208</v>
@@ -3081,7 +3050,7 @@
         <v>209</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>210</v>
@@ -3095,7 +3064,7 @@
     </row>
     <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>213</v>
@@ -3104,7 +3073,7 @@
         <v>214</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>215</v>
@@ -3116,9 +3085,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>218</v>
@@ -3127,7 +3096,7 @@
         <v>219</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>220</v>
@@ -3141,7 +3110,7 @@
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>223</v>
@@ -3150,7 +3119,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>225</v>
@@ -3158,34 +3127,34 @@
       <c r="F45" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>232</v>
@@ -3194,7 +3163,7 @@
         <v>233</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>234</v>
@@ -3208,7 +3177,7 @@
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>237</v>
@@ -3217,7 +3186,7 @@
         <v>238</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>239</v>
@@ -3231,7 +3200,7 @@
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>242</v>
@@ -3240,7 +3209,7 @@
         <v>243</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>244</v>
@@ -3254,7 +3223,7 @@
     </row>
     <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>247</v>
@@ -3263,7 +3232,7 @@
         <v>248</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>249</v>
@@ -3277,7 +3246,7 @@
     </row>
     <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>252</v>
@@ -3286,36 +3255,36 @@
         <v>253</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G51" s="7" t="s">
+    </row>
+    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>52</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>260</v>
@@ -3323,7 +3292,7 @@
     </row>
     <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>261</v>
@@ -3332,7 +3301,7 @@
         <v>262</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>263</v>
@@ -3346,7 +3315,7 @@
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>266</v>
@@ -3355,7 +3324,7 @@
         <v>267</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>268</v>
@@ -3369,7 +3338,7 @@
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>271</v>
@@ -3378,7 +3347,7 @@
         <v>272</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>273</v>
@@ -3392,16 +3361,16 @@
     </row>
     <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="9" t="s">
         <v>277</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>278</v>
@@ -3415,16 +3384,16 @@
     </row>
     <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>283</v>
@@ -3438,7 +3407,7 @@
     </row>
     <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>286</v>
@@ -3447,7 +3416,7 @@
         <v>287</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>288</v>
@@ -3461,58 +3430,58 @@
     </row>
     <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G60" s="12"/>
+      <c r="G60" s="7" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>302</v>
@@ -3520,34 +3489,34 @@
       <c r="F61" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>309</v>
@@ -3556,7 +3525,7 @@
         <v>310</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>311</v>
@@ -3570,7 +3539,7 @@
     </row>
     <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>314</v>
@@ -3579,7 +3548,7 @@
         <v>315</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>316</v>
@@ -3593,7 +3562,7 @@
     </row>
     <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>319</v>
@@ -3602,7 +3571,7 @@
         <v>320</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>321</v>
@@ -3616,7 +3585,7 @@
     </row>
     <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>324</v>
@@ -3625,7 +3594,7 @@
         <v>325</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>326</v>
@@ -3639,7 +3608,7 @@
     </row>
     <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>329</v>
@@ -3648,7 +3617,7 @@
         <v>330</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>331</v>
@@ -3657,56 +3626,56 @@
         <v>332</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>333</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>513</v>
-      </c>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>342</v>
@@ -3715,7 +3684,7 @@
         <v>343</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>344</v>
@@ -3727,9 +3696,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>347</v>
@@ -3738,7 +3707,7 @@
         <v>348</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>349</v>
@@ -3747,58 +3716,58 @@
         <v>350</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>351</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="G72" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>360</v>
@@ -3807,82 +3776,82 @@
         <v>361</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>362</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>376</v>
@@ -3890,16 +3859,16 @@
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="12" t="s">
         <v>378</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>379</v>
@@ -3913,16 +3882,16 @@
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>383</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>384</v>
@@ -3936,16 +3905,16 @@
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>388</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>389</v>
@@ -3957,9 +3926,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>392</v>
@@ -3968,7 +3937,7 @@
         <v>393</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>394</v>
@@ -3982,16 +3951,16 @@
     </row>
     <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>398</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>399</v>
@@ -3999,43 +3968,43 @@
       <c r="F82" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="D83" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="9" t="s">
         <v>407</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>408</v>
@@ -4049,7 +4018,7 @@
     </row>
     <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>411</v>
@@ -4058,7 +4027,7 @@
         <v>412</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>413</v>
@@ -4072,7 +4041,7 @@
     </row>
     <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>416</v>
@@ -4081,67 +4050,67 @@
         <v>417</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>418</v>
       </c>
       <c r="F86" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>86</v>
-      </c>
-      <c r="B87" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="D87" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>87</v>
-      </c>
-      <c r="B88" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>425</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>426</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E88" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>430</v>
@@ -4150,36 +4119,36 @@
         <v>431</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>432</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="D90" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>438</v>
@@ -4187,7 +4156,7 @@
     </row>
     <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>439</v>
@@ -4196,7 +4165,7 @@
         <v>440</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>441</v>
@@ -4204,34 +4173,34 @@
       <c r="F91" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>443</v>
-      </c>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="D92" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>448</v>
@@ -4240,7 +4209,7 @@
         <v>449</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>450</v>
@@ -4254,7 +4223,7 @@
     </row>
     <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>453</v>
@@ -4263,7 +4232,7 @@
         <v>454</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>455</v>
@@ -4277,7 +4246,7 @@
     </row>
     <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>458</v>
@@ -4286,151 +4255,151 @@
         <v>459</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>460</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D96" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="F97" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>472</v>
+        <v>296</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>469</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>474</v>
+        <v>296</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>100</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>479</v>
@@ -4439,59 +4408,59 @@
         <v>480</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="18" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="7" t="s">
         <v>485</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="G103" s="19" t="s">
+    </row>
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>104</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>103</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="C104" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="D104" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>492</v>
@@ -4499,16 +4468,16 @@
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>494</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>495</v>
@@ -4516,34 +4485,34 @@
       <c r="F105" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
-        <v>105</v>
-      </c>
-      <c r="B106" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="D106" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>502</v>
@@ -4551,8 +4520,8 @@
       <c r="C107" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>95</v>
+      <c r="D107" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>504</v>
@@ -4565,34 +4534,11 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>107</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
